--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>state@Character.xlsx</t>
+  </si>
+  <si>
+    <t>TbAudio</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>audio@Character.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1327,6 +1336,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
